--- a/src/test/resources/co.com.choucair.certificacion.retotecnico/datadriver/paginas/crearpagina.xlsx
+++ b/src/test/resources/co.com.choucair.certificacion.retotecnico/datadriver/paginas/crearpagina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-PC\Desktop\RetoTecnicoChoucair\src\test\resources\co.com.choucair.certificacion.retotecnico\datadriver\crearpublicacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO-PC\Desktop\RetoTecnicoChoucair\src\test\resources\co.com.choucair.certificacion.retotecnico\datadriver\paginas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF7B2CC-2394-4693-B941-29C2B5D10A91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE1420D-6AC4-4E08-B696-2D4F87A6FDD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B98D30E1-C5C4-4494-A40C-6E9EA5FB1809}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>textoarea</t>
   </si>
   <si>
-    <t>creo pagina</t>
+    <t>edito pagina</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
